--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -73,11 +73,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -459,276 +462,321 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Midterm</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>FinalTerm</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Homework</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="5" t="n">
         <v>20200001</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Sophia</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>40.39</v>
       </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="4" t="n">
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="5" t="n">
         <v>20200002</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Emily</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="4" t="n">
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="5" t="n">
         <v>20200003</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Lily</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>34.74</v>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="2">
-      <c r="A5" s="4" t="n">
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="5" t="n">
         <v>20200004</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Olivia</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>82.38</v>
       </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="2">
-      <c r="A6" s="4" t="n">
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="3">
+      <c r="A6" s="5" t="n">
         <v>20200005</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Amelia</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="2">
-      <c r="A7" s="4" t="n">
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="3">
+      <c r="A7" s="5" t="n">
         <v>20200006</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Isla</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="2">
-      <c r="A8" s="4" t="n">
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="3">
+      <c r="A8" s="5" t="n">
         <v>20200007</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Isabella</t>
         </is>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>58.51000000000001</v>
       </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="2">
-      <c r="A9" s="4" t="n">
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="3">
+      <c r="A9" s="5" t="n">
         <v>20200008</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Ava</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>54.64</v>
       </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="2">
-      <c r="A10" s="4" t="n">
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="3">
+      <c r="A10" s="5" t="n">
         <v>20200009</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Sophie</t>
         </is>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>52.35999999999999</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
